--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_57.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_57.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hiroshi Miura</t>
+          <t>Yuki Saito</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
